--- a/Linux.xlsx
+++ b/Linux.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdcdi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F11A5-764A-4CF9-92C1-DE351EA399E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB008797-A930-4C82-92B5-0AC22F0619FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{002BD43B-3D1D-41A2-B4F0-A392C3A9884E}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{002BD43B-3D1D-41A2-B4F0-A392C3A9884E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="314">
   <si>
     <t>ssh</t>
   </si>
@@ -46,9 +47,6 @@
   </si>
   <si>
     <t>nano</t>
-  </si>
-  <si>
-    <t>vim</t>
   </si>
   <si>
     <t>cat</t>
@@ -257,11 +255,6 @@
   <si>
     <t>ls -l  --to view list with details
 ls -al --to view hidden files as well</t>
-  </si>
-  <si>
-    <t>cd / --to go to root directory
-cd .. --Jump back to one directory
-cd  --go to home</t>
   </si>
   <si>
     <t>touch file1 file2 file 3  --to create 3 files
@@ -297,11 +290,6 @@
   </si>
   <si>
     <t>Ctrl + x + y --to save the file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i -- to insert the data
-Esc + :wq --to write and quit
-</t>
   </si>
   <si>
     <t>to view the file data</t>
@@ -1612,13 +1600,307 @@
   </si>
   <si>
     <t>Linux Instruction</t>
+  </si>
+  <si>
+    <t>Ctrl + l
+reset -- to reset the shell</t>
+  </si>
+  <si>
+    <t>cd / --to go to previous directory
+cd .. --Jump back to one directory
+cd  --go to home
+cd - --to go back to home dir
+cd ~ --to home dir
+popd --do go to previous dir
+pushd /dir - to go to dir</t>
+  </si>
+  <si>
+    <t>sudo apt update
+or
+apt update
+sudo !!</t>
+  </si>
+  <si>
+    <t>to run the past command by search</t>
+  </si>
+  <si>
+    <t>Contrl + r  and Control + c to break out</t>
+  </si>
+  <si>
+    <t>!Line number</t>
+  </si>
+  <si>
+    <t>to execute command from history</t>
+  </si>
+  <si>
+    <t>HISTTIMEFORMAT="%Y-%m-%d %T "</t>
+  </si>
+  <si>
+    <t>to add time and date to the history of commands</t>
+  </si>
+  <si>
+    <t>nano ~/.bashrc
+add HISTTIMEFORMAT="%Y-%m-%d %T "
+Ctrl + O to save the file
+Crtl + x to exit the editor</t>
+  </si>
+  <si>
+    <t>cmatrix</t>
+  </si>
+  <si>
+    <t>no use</t>
+  </si>
+  <si>
+    <t>f11 fullscreen Ctrl +c to come out</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + '+'</t>
+  </si>
+  <si>
+    <t>to increase font size</t>
+  </si>
+  <si>
+    <t>Ctrl + -</t>
+  </si>
+  <si>
+    <t>to decrese font size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo apt install cmatrix </t>
+  </si>
+  <si>
+    <t>Ctrl + U to delete the current line
+Ctrl + a --start of the line
+Ctrl + e --end of the line</t>
+  </si>
+  <si>
+    <t>command1 ; command2</t>
+  </si>
+  <si>
+    <t>chaining comands</t>
+  </si>
+  <si>
+    <t>command1 &amp;&amp; command2</t>
+  </si>
+  <si>
+    <t>command2 executes if there is no exception in command1</t>
+  </si>
+  <si>
+    <t>tail -f /var/log/filename --to view the changes in realtime</t>
+  </si>
+  <si>
+    <t>truncate -s 0 fileName.txt -- to delete the file content</t>
+  </si>
+  <si>
+    <t>mount 
+mount | column -t</t>
+  </si>
+  <si>
+    <t>m --sort by memory
+p - sort by process
+t -sort by time
+n -sort by process id
+top -u username
+top -d 5 --delay the updates by 5 seconds
+top -b -n 1</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>to know user who logged in last</t>
+  </si>
+  <si>
+    <t>last username</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>user currently logged in</t>
+  </si>
+  <si>
+    <t>vim 
+u- undo last change
+yy- to copy current line
+yw - to copy word
+p/P - to copy after/before the cursor
+i/I --insert the text before  the cursor/line
+a/A --insert the text after the cursor/line
+o/O insert a new line below/above the cursor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+h-left
+j-down
+k-up
+l-right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+w --move one word forward
+b --move one word backward
+0 - begging of the line
+$ - end of the line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+/ --search for word
+n --next 
+N --previous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+:%s/oldtext/newtext/g --to replace
+:%s/oldtext/newtext/gc --to replace and ask for confirmation</t>
+  </si>
+  <si>
+    <t>i -- to insert the data
+Esc + :wq --to write and quit
+:q! --quit withpit saving
+:w --save without quitting
+:w fileName.txt -- to  save file with diff name
+:q --quit if no changes have been made
+Ctrl + z to minimize the window
+fg -- foreground- to bring back the window
+I- edit at the start of the line
+A- edit at the end of the line</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">grep </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"error"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *.log | wc -l</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">find lines with error </t>
+  </si>
+  <si>
+    <t>ps aux | awk '{print $2, $11}'</t>
+  </si>
+  <si>
+    <t>print 2 and 11th columns</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ls -lh | sort -k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> -hr | head -5</t>
+    </r>
+  </si>
+  <si>
+    <t>sort by 5th column, in reverse and desplay top 5 results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tail -f /var/log/syslog | grep </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ERROR"</t>
+    </r>
+  </si>
+  <si>
+    <t>Monitor a log file and show only lines containing the word "ERROR" as they are added.</t>
+  </si>
+  <si>
+    <t>du -sh * | sort -hr | head -5</t>
+  </si>
+  <si>
+    <t>Find out which directories are using the most disk space.</t>
+  </si>
+  <si>
+    <t>grep -c "ERROR" *.log | sort -t: -k2 -nr | head -3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Var(--ds-font-family-code,ui-mo"/>
+      </rPr>
+      <t>.log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files, count how many times a specific string appears, and display the top 3 files with the most occurrences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">netstat -tuln | grep -v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"127.0.0.1"</t>
+    </r>
+  </si>
+  <si>
+    <t>Check for open network ports and filter out results for certain services.</t>
+  </si>
+  <si>
+    <t>Find files larger than 100MB and delete them.</t>
+  </si>
+  <si>
+    <t>find . -type f -size +100M | xargs rm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,6 +1923,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF172B4D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF172B4D"/>
+      <name val="Var(--ds-font-family-code,ui-mo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1650,7 +1955,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1673,11 +1978,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1688,6 +2004,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2002,49 +2332,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A18F1-DCCF-41B3-BF1E-B2BCE75277D5}">
-  <dimension ref="A1:GK71"/>
+  <dimension ref="A1:GK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="39.6328125" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" customWidth="1"/>
     <col min="3" max="3" width="48.7265625" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="47.90625" customWidth="1"/>
+    <col min="5" max="5" width="62.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:193" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:193">
       <c r="A1" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:193" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:193">
       <c r="A2" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4"/>
       <c r="H2" s="1"/>
@@ -2110,9 +2441,9 @@
       <c r="GH2" s="1"/>
       <c r="GK2" s="1"/>
     </row>
-    <row r="3" spans="1:193" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:193" ht="29">
       <c r="A3" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2121,15 +2452,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:193" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:193">
       <c r="A4" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -2138,997 +2469,1193 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:193" ht="43.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:193" ht="101.5">
       <c r="A5" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:193" ht="43.5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:193" ht="43.5">
       <c r="A6" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:193" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:193">
       <c r="A7" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:193" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:193">
       <c r="A8" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:193" ht="145">
+      <c r="A9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:193">
+      <c r="A10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:193">
+      <c r="A11" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:193" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:193">
+      <c r="A12" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:193">
+      <c r="A13" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:193">
+      <c r="A14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:193">
+      <c r="A15" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:193" ht="29">
+      <c r="A16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="29">
+      <c r="A18" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="58">
+      <c r="A21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29">
+      <c r="A29" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="58">
+      <c r="A39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="29">
+      <c r="A44" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="29">
+      <c r="A47" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:193" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="E47" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+      <c r="B48" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+      <c r="B49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+      <c r="B50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="B51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="29">
+      <c r="A52" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="B52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+      <c r="E52" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+      <c r="B53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+      <c r="B54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="B55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+      <c r="B56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="B57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+      <c r="E57" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="29">
+      <c r="A58" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+      <c r="B58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="101.5">
+      <c r="A59" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="B59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+      <c r="E59" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="B60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="43.5">
+      <c r="A63" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+      <c r="B63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="B64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="B65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
+      <c r="A68" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="58">
+      <c r="A69" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E69" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
+      <c r="A71" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="43.5">
+      <c r="A72" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="29">
+      <c r="A75" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0E0C31-28BA-4084-8816-5681A8007BE6}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="41.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>312</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
